--- a/examples/post secondary students/profile.xlsx
+++ b/examples/post secondary students/profile.xlsx
@@ -510,7 +510,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R2" t="n">
@@ -580,7 +580,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>College (include Cegep)</t>
+          <t>University</t>
         </is>
       </c>
       <c r="R3" t="n">
@@ -650,7 +650,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>35018002</t>
+          <t>24039000</t>
         </is>
       </c>
       <c r="R4" t="n">
@@ -720,7 +720,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>University of Manitoba</t>
+          <t>Mount Allison University</t>
         </is>
       </c>
       <c r="R5" t="n">
@@ -790,7 +790,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>11.0802</t>
+          <t>5.0119</t>
         </is>
       </c>
       <c r="R6" t="n">
@@ -860,7 +860,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>Customer Service Support/Call Centre/Teleservice Operation</t>
+          <t>Teaching Assistants/Aides, Other</t>
         </is>
       </c>
       <c r="R7" t="n">

--- a/examples/post secondary students/profile.xlsx
+++ b/examples/post secondary students/profile.xlsx
@@ -650,7 +650,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>24039000</t>
+          <t>13005000</t>
         </is>
       </c>
       <c r="R4" t="n">
@@ -720,7 +720,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>Mount Allison University</t>
+          <t>Merici College</t>
         </is>
       </c>
       <c r="R5" t="n">
@@ -790,7 +790,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>5.0119</t>
+          <t>52.0411</t>
         </is>
       </c>
       <c r="R6" t="n">
@@ -860,7 +860,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>Teaching Assistants/Aides, Other</t>
+          <t>Computer Programming, Specific Applications</t>
         </is>
       </c>
       <c r="R7" t="n">
